--- a/biology/Histoire de la zoologie et de la botanique/Society_for_the_History_of_Natural_History/Society_for_the_History_of_Natural_History.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Society_for_the_History_of_Natural_History/Society_for_the_History_of_Natural_History.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Society for the History of Natural History (en français, Société pour l'histoire de l'histoire naturelle) (SHNH) est une société d'histoire naturelle qui s'intéresse à la botanique, la zoologie et la géologie, aux collections d'histoire naturelle, à l'exploration, l'art et la bibliographie.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est fondée en 1936 à Londres sous le nom de Society for the Bibliography of Natural History. Le premier président est Charles Davies Sherborn, auteur de l'Index Animalium de 1758 à 1850. Elle est placée sous le patronage de David Attenborough. Elle a son siège au musée d'histoire naturelle de Londres.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale publication de la Société est Archives of Natural History, publiée pour le compte de la Société par Edinburgh University Press. La Société publie également des ouvrages.
 </t>
@@ -573,7 +589,9 @@
           <t>Médailles et prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La médaille SHNH Founders' Medal est décernée aux personnes qui ont apporté une contribution substantielle à l'étude de l'histoire ou de la bibliographie de l'histoire naturelle.
 La médaille SHNH John Thackray est créée en 2000 pour commémorer la vie et l'œuvre de John Thackray, ancien président de la Société. Cette médaille a été décernée pour une réalisation significative au cours des trois années précédentes dans l'histoire de ces domaines d'intérêt pour la Société, à savoir les sciences de la vie et de la Terre. En 2021, elle devient un prix littéraire, décerné au meilleur livre publié sur l'histoire ou la bibliographie de l'histoire naturelle au cours des deux années précédentes.
@@ -606,9 +624,11 @@
           <t>Personnalités en lien avec la société</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>David Attenborough, patron (depuis 2010)[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>David Attenborough, patron (depuis 2010)
 Arthur MacGregor, président (2015-2018)
 John Ramsbottom, président (1943-1972)
 Charles Davies Sherborn, président (1936-1942)</t>
@@ -640,6 +660,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
